--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -425,10 +443,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -472,28 +490,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="3">
+      <c r="A12" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="3">
+      <c r="C12" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -518,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -627,10 +645,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -674,28 +692,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="3">
+      <c r="C19" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -720,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="3">
+      <c r="I21" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -916,10 +934,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="J27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -963,28 +981,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3">
+      <c r="A29" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="3">
+      <c r="C29" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1009,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="3">
+      <c r="I31" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1118,10 +1136,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="J34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1165,28 +1183,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="3">
+      <c r="A36" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="3">
+      <c r="C36" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1211,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="3">
+      <c r="I38" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1349,10 +1367,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="3" t="s">
+      <c r="J42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1396,28 +1414,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="3">
+      <c r="A44" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="3">
+      <c r="C44" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="3">
+      <c r="F44" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="3">
+      <c r="G44" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="3">
+      <c r="H44" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1442,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="3">
+      <c r="B46" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="3">
+      <c r="C46" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="3">
+      <c r="D46" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="F46" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="3">
+      <c r="G46" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="3">
+      <c r="H46" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="3">
+      <c r="I46" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1754,10 +1772,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="J56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1801,28 +1819,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="3">
+      <c r="A58" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="3">
+      <c r="C58" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1847,28 +1865,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="C60" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="3">
+      <c r="D60" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="3">
+      <c r="I60" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1956,10 +1974,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="3" t="s">
+      <c r="J63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2003,28 +2021,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="3">
+      <c r="A65" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="3">
+      <c r="B65" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="3">
+      <c r="C65" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="3">
+      <c r="F65" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="3">
+      <c r="G65" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="3">
+      <c r="H65" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2049,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="3">
+      <c r="B67" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="3">
+      <c r="C67" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="3">
+      <c r="D67" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="3">
+      <c r="F67" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="3">
+      <c r="G67" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="3">
+      <c r="H67" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="3">
+      <c r="I67" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2158,10 +2176,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="3" t="s">
+      <c r="J70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2205,28 +2223,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="3">
+      <c r="A72" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="3">
+      <c r="C72" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2251,28 +2269,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="3">
+      <c r="I74" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2534,10 +2552,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="J83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2581,28 +2599,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="3">
+      <c r="C85" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2627,28 +2645,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2736,10 +2754,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="J90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2783,28 +2801,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="3">
+      <c r="C92" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2829,28 +2847,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="3">
+      <c r="I94" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3025,10 +3043,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="3" t="s">
+      <c r="J100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3072,28 +3090,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="3">
+      <c r="A102" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="3">
+      <c r="C102" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3118,28 +3136,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="3">
+      <c r="C104" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="3">
+      <c r="D104" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="3">
+      <c r="I104" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3227,10 +3245,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="3" t="s">
+      <c r="J107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3274,28 +3292,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="3">
+      <c r="A109" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="3">
+      <c r="C109" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3320,28 +3338,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="3">
+      <c r="I111" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3487,10 +3505,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="3" t="s">
+      <c r="J116" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3534,28 +3552,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="3">
+      <c r="A118" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="3">
+      <c r="C118" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3580,28 +3598,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="3">
+      <c r="I120" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3892,10 +3910,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="3" t="s">
+      <c r="J130" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3939,28 +3957,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="3">
+      <c r="A132" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="3">
+      <c r="C132" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3985,28 +4003,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="3">
+      <c r="B134" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="3">
+      <c r="C134" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="3">
+      <c r="D134" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="3">
+      <c r="F134" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="3">
+      <c r="G134" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="3">
+      <c r="H134" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="3">
+      <c r="I134" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4297,10 +4315,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="J144" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4344,28 +4362,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="3">
+      <c r="C146" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4390,28 +4408,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4499,10 +4517,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="3" t="s">
+      <c r="J151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4546,28 +4564,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="3">
+      <c r="A153" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="3">
+      <c r="C153" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4592,28 +4610,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="3">
+      <c r="B155" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="3">
+      <c r="C155" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="3">
+      <c r="D155" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="3">
+      <c r="E155" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="3">
+      <c r="F155" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="3">
+      <c r="G155" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="3">
+      <c r="H155" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="3">
+      <c r="I155" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4701,10 +4719,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="3" t="s">
+      <c r="J158" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4748,28 +4766,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="3">
+      <c r="A160" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="3">
+      <c r="C160" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4794,28 +4812,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="3">
+      <c r="C162" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="3">
+      <c r="D162" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="3">
+      <c r="I162" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5019,10 +5037,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="3" t="s">
+      <c r="J169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5066,28 +5084,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="3">
+      <c r="A171" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="3">
+      <c r="C171" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5112,28 +5130,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="3">
+      <c r="C173" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="3">
+      <c r="D173" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="3">
+      <c r="I173" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5221,10 +5239,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="3" t="s">
+      <c r="J176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5268,28 +5286,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="3">
+      <c r="A178" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="3">
+      <c r="C178" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5314,28 +5332,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="3">
+      <c r="C180" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="3">
+      <c r="D180" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="3">
+      <c r="I180" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5626,10 +5644,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="3" t="s">
+      <c r="J190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5673,28 +5691,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="3">
+      <c r="A192" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="3">
+      <c r="C192" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5719,28 +5737,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="3">
+      <c r="C194" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="3">
+      <c r="D194" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="3">
+      <c r="I194" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5857,10 +5875,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="3" t="s">
+      <c r="J198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5904,28 +5922,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="3">
+      <c r="A200" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="3">
+      <c r="C200" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5950,28 +5968,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="3">
+      <c r="C202" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="3">
+      <c r="D202" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="3">
+      <c r="I202" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6088,10 +6106,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="3" t="s">
+      <c r="J206" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6135,28 +6153,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="3">
+      <c r="A208" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="3">
+      <c r="B208" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="3">
+      <c r="C208" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="3">
+      <c r="E208" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="3">
+      <c r="F208" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="3">
+      <c r="G208" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="3">
+      <c r="H208" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6181,28 +6199,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="3">
+      <c r="B210" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="3">
+      <c r="C210" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="3">
+      <c r="D210" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="3">
+      <c r="E210" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="3">
+      <c r="F210" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="3">
+      <c r="G210" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="3">
+      <c r="H210" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="3">
+      <c r="I210" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6290,10 +6308,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="3" t="s">
+      <c r="J213" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6337,28 +6355,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="3">
+      <c r="A215" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="3">
+      <c r="B215" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="3">
+      <c r="C215" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="3">
+      <c r="E215" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="3">
+      <c r="F215" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="3">
+      <c r="G215" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="3">
+      <c r="H215" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6383,28 +6401,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="3">
+      <c r="B217" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="3">
+      <c r="C217" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="3">
+      <c r="D217" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="3">
+      <c r="E217" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="3">
+      <c r="F217" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="3">
+      <c r="G217" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="3">
+      <c r="H217" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="3">
+      <c r="I217" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6521,10 +6539,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="3" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6272" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -153,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -161,6 +201,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -183,26 +231,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true">
-      <c r="A1" t="s" s="6">
+    <row r="1" s="14" customFormat="true">
+      <c r="A1" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G1" t="s" s="14">
         <v>7</v>
       </c>
     </row>
@@ -230,28 +278,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="6">
+      <c r="C3" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="H3" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -276,28 +324,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="6">
+      <c r="I5" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -443,10 +491,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="J10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -490,28 +538,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="6">
+      <c r="C12" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="6">
+      <c r="F12" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="6">
+      <c r="G12" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="6">
+      <c r="H12" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -536,28 +584,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="6">
+      <c r="B14" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="6">
+      <c r="C14" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="6">
+      <c r="D14" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="6">
+      <c r="E14" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="6">
+      <c r="F14" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="6">
+      <c r="G14" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="6">
+      <c r="H14" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="6">
+      <c r="I14" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -645,10 +693,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -692,28 +740,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="6">
+      <c r="A19" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="6">
+      <c r="B19" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="6">
+      <c r="C19" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="6">
+      <c r="E19" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="6">
+      <c r="F19" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="6">
+      <c r="G19" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="6">
+      <c r="H19" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -738,28 +786,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="6">
+      <c r="B21" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="6">
+      <c r="C21" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="6">
+      <c r="D21" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="6">
+      <c r="E21" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="6">
+      <c r="F21" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="6">
+      <c r="G21" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="6">
+      <c r="H21" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="6">
+      <c r="I21" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -934,10 +982,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="J27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -981,28 +1029,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="6">
+      <c r="A29" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="6">
+      <c r="B29" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="6">
+      <c r="C29" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="6">
+      <c r="E29" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="6">
+      <c r="F29" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="6">
+      <c r="G29" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="6">
+      <c r="H29" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1027,28 +1075,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="6">
+      <c r="B31" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="6">
+      <c r="C31" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="6">
+      <c r="D31" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="6">
+      <c r="E31" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="6">
+      <c r="F31" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="6">
+      <c r="G31" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="6">
+      <c r="H31" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="6">
+      <c r="I31" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1136,10 +1184,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="6" t="s">
+      <c r="J34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1183,28 +1231,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="6">
+      <c r="A36" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="6">
+      <c r="B36" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="6">
+      <c r="C36" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="6">
+      <c r="E36" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="6">
+      <c r="F36" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="6">
+      <c r="G36" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="6">
+      <c r="H36" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1229,28 +1277,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="6">
+      <c r="B38" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="6">
+      <c r="C38" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="6">
+      <c r="D38" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="6">
+      <c r="E38" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="6">
+      <c r="F38" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="6">
+      <c r="G38" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="6">
+      <c r="H38" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="6">
+      <c r="I38" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1367,10 +1415,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="6" t="s">
+      <c r="J42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1414,28 +1462,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="6">
+      <c r="A44" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="6">
+      <c r="B44" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="6">
+      <c r="C44" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="6">
+      <c r="E44" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="6">
+      <c r="F44" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="6">
+      <c r="G44" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="6">
+      <c r="H44" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1460,28 +1508,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="6">
+      <c r="B46" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="6">
+      <c r="C46" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="6">
+      <c r="D46" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="6">
+      <c r="E46" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="6">
+      <c r="F46" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="6">
+      <c r="G46" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="6">
+      <c r="H46" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="6">
+      <c r="I46" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1772,10 +1820,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="6" t="s">
+      <c r="J56" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1819,28 +1867,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="6">
+      <c r="A58" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="6">
+      <c r="B58" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="6">
+      <c r="C58" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="6">
+      <c r="E58" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="6">
+      <c r="F58" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="6">
+      <c r="G58" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="6">
+      <c r="H58" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1865,28 +1913,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="6">
+      <c r="B60" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="6">
+      <c r="C60" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="6">
+      <c r="D60" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="6">
+      <c r="E60" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="6">
+      <c r="F60" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="6">
+      <c r="G60" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="6">
+      <c r="H60" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="6">
+      <c r="I60" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1974,10 +2022,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="6" t="s">
+      <c r="J63" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2021,28 +2069,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="6">
+      <c r="A65" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="6">
+      <c r="B65" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="6">
+      <c r="C65" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="6">
+      <c r="E65" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="6">
+      <c r="F65" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="6">
+      <c r="G65" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="6">
+      <c r="H65" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2067,28 +2115,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="6">
+      <c r="B67" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="6">
+      <c r="C67" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="6">
+      <c r="D67" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="6">
+      <c r="E67" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="6">
+      <c r="F67" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="6">
+      <c r="G67" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="6">
+      <c r="H67" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="6">
+      <c r="I67" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2176,10 +2224,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="6" t="s">
+      <c r="J70" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2223,28 +2271,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="6">
+      <c r="A72" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="6">
+      <c r="B72" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="6">
+      <c r="C72" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="6">
+      <c r="E72" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="6">
+      <c r="F72" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="6">
+      <c r="G72" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="6">
+      <c r="H72" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2269,28 +2317,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="6">
+      <c r="B74" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="6">
+      <c r="C74" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="6">
+      <c r="D74" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="6">
+      <c r="E74" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="6">
+      <c r="F74" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="6">
+      <c r="G74" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="6">
+      <c r="H74" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="6">
+      <c r="I74" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2552,10 +2600,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="6" t="s">
+      <c r="J83" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2599,28 +2647,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="6">
+      <c r="A85" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="6">
+      <c r="B85" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="6">
+      <c r="C85" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="6">
+      <c r="E85" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="6">
+      <c r="F85" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="6">
+      <c r="G85" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="6">
+      <c r="H85" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2645,28 +2693,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="6">
+      <c r="B87" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="6">
+      <c r="C87" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="6">
+      <c r="D87" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="6">
+      <c r="E87" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="6">
+      <c r="F87" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="6">
+      <c r="G87" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="6">
+      <c r="H87" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="6">
+      <c r="I87" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2754,10 +2802,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="6" t="s">
+      <c r="J90" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2801,28 +2849,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="6">
+      <c r="A92" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="6">
+      <c r="B92" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="6">
+      <c r="C92" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="6">
+      <c r="E92" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="6">
+      <c r="F92" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="6">
+      <c r="G92" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="6">
+      <c r="H92" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2847,28 +2895,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="6">
+      <c r="B94" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="6">
+      <c r="C94" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="6">
+      <c r="D94" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="6">
+      <c r="E94" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="6">
+      <c r="F94" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="6">
+      <c r="G94" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="6">
+      <c r="H94" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="6">
+      <c r="I94" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3043,10 +3091,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="6" t="s">
+      <c r="J100" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3090,28 +3138,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="6">
+      <c r="A102" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="6">
+      <c r="B102" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="6">
+      <c r="C102" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="6">
+      <c r="E102" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="6">
+      <c r="F102" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="6">
+      <c r="G102" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="6">
+      <c r="H102" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3136,28 +3184,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="6">
+      <c r="B104" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="6">
+      <c r="C104" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="6">
+      <c r="D104" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="6">
+      <c r="E104" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="6">
+      <c r="F104" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="6">
+      <c r="G104" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="6">
+      <c r="H104" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="6">
+      <c r="I104" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3245,10 +3293,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="6" t="s">
+      <c r="J107" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3292,28 +3340,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="6">
+      <c r="A109" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="6">
+      <c r="B109" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="6">
+      <c r="C109" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="6">
+      <c r="E109" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="6">
+      <c r="F109" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="6">
+      <c r="G109" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="6">
+      <c r="H109" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3338,28 +3386,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="6">
+      <c r="B111" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="6">
+      <c r="C111" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="6">
+      <c r="D111" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="6">
+      <c r="E111" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="6">
+      <c r="F111" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="6">
+      <c r="G111" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="6">
+      <c r="H111" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="6">
+      <c r="I111" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3505,10 +3553,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="6" t="s">
+      <c r="J116" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3552,28 +3600,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="6">
+      <c r="A118" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="6">
+      <c r="B118" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="6">
+      <c r="C118" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="6">
+      <c r="E118" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="6">
+      <c r="F118" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="6">
+      <c r="G118" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="6">
+      <c r="H118" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3598,28 +3646,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="6">
+      <c r="B120" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="6">
+      <c r="C120" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="6">
+      <c r="D120" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="6">
+      <c r="E120" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="6">
+      <c r="F120" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="6">
+      <c r="G120" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="6">
+      <c r="H120" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="6">
+      <c r="I120" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3910,10 +3958,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="6" t="s">
+      <c r="J130" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3957,28 +4005,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="6">
+      <c r="A132" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="6">
+      <c r="B132" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="6">
+      <c r="C132" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="6">
+      <c r="E132" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="6">
+      <c r="F132" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="6">
+      <c r="G132" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="6">
+      <c r="H132" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4003,28 +4051,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="6">
+      <c r="B134" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="6">
+      <c r="C134" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="6">
+      <c r="D134" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="6">
+      <c r="E134" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="6">
+      <c r="F134" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="6">
+      <c r="G134" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="6">
+      <c r="H134" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="6">
+      <c r="I134" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4315,10 +4363,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="6" t="s">
+      <c r="J144" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4362,28 +4410,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="6">
+      <c r="A146" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="6">
+      <c r="B146" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="6">
+      <c r="C146" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="6">
+      <c r="E146" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="6">
+      <c r="F146" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="6">
+      <c r="G146" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="6">
+      <c r="H146" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4408,28 +4456,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="6">
+      <c r="B148" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="6">
+      <c r="C148" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="6">
+      <c r="D148" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="6">
+      <c r="E148" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="6">
+      <c r="F148" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="6">
+      <c r="G148" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="6">
+      <c r="H148" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="6">
+      <c r="I148" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4517,10 +4565,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="6" t="s">
+      <c r="J151" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4564,28 +4612,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="6">
+      <c r="A153" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="6">
+      <c r="B153" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="6">
+      <c r="C153" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="6">
+      <c r="E153" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="6">
+      <c r="F153" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="6">
+      <c r="G153" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="6">
+      <c r="H153" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4610,28 +4658,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="6">
+      <c r="B155" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="6">
+      <c r="C155" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="6">
+      <c r="D155" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="6">
+      <c r="E155" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="6">
+      <c r="F155" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="6">
+      <c r="G155" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="6">
+      <c r="H155" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="6">
+      <c r="I155" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4719,10 +4767,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="6" t="s">
+      <c r="J158" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4766,28 +4814,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="6">
+      <c r="A160" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="6">
+      <c r="B160" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="6">
+      <c r="C160" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="6">
+      <c r="E160" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="6">
+      <c r="F160" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="6">
+      <c r="G160" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="6">
+      <c r="H160" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4812,28 +4860,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="6">
+      <c r="B162" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="6">
+      <c r="C162" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="6">
+      <c r="D162" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="6">
+      <c r="E162" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="6">
+      <c r="F162" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="6">
+      <c r="G162" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="6">
+      <c r="H162" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="6">
+      <c r="I162" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5085,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="6" t="s">
+      <c r="J169" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5084,28 +5132,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="6">
+      <c r="A171" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="6">
+      <c r="B171" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="6">
+      <c r="C171" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="6">
+      <c r="E171" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="6">
+      <c r="F171" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="6">
+      <c r="G171" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="6">
+      <c r="H171" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5178,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="6">
+      <c r="B173" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="6">
+      <c r="C173" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="6">
+      <c r="D173" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="6">
+      <c r="E173" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="6">
+      <c r="F173" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="6">
+      <c r="G173" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="6">
+      <c r="H173" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="6">
+      <c r="I173" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5239,10 +5287,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="6" t="s">
+      <c r="J176" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5286,28 +5334,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="6">
+      <c r="A178" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="6">
+      <c r="B178" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="6">
+      <c r="C178" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="6">
+      <c r="E178" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="6">
+      <c r="F178" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="6">
+      <c r="G178" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="6">
+      <c r="H178" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5332,28 +5380,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="6">
+      <c r="B180" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="6">
+      <c r="C180" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="6">
+      <c r="D180" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="6">
+      <c r="E180" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="6">
+      <c r="F180" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="6">
+      <c r="G180" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="6">
+      <c r="H180" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="6">
+      <c r="I180" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5644,10 +5692,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="6" t="s">
+      <c r="J190" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5691,28 +5739,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="6">
+      <c r="A192" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="6">
+      <c r="B192" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="6">
+      <c r="C192" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="6">
+      <c r="E192" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="6">
+      <c r="F192" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="6">
+      <c r="G192" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="6">
+      <c r="H192" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5737,28 +5785,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="6">
+      <c r="B194" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="6">
+      <c r="C194" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="6">
+      <c r="D194" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="6">
+      <c r="E194" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="6">
+      <c r="F194" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="6">
+      <c r="G194" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="6">
+      <c r="H194" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="6">
+      <c r="I194" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5875,10 +5923,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="6" t="s">
+      <c r="J198" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5922,28 +5970,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="6">
+      <c r="A200" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="6">
+      <c r="B200" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="6">
+      <c r="C200" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="6">
+      <c r="E200" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="6">
+      <c r="F200" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="6">
+      <c r="G200" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="6">
+      <c r="H200" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5968,28 +6016,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="6">
+      <c r="B202" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="6">
+      <c r="C202" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="6">
+      <c r="D202" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="6">
+      <c r="E202" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="6">
+      <c r="F202" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="6">
+      <c r="G202" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="6">
+      <c r="H202" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="6">
+      <c r="I202" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6106,10 +6154,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="6" t="s">
+      <c r="J206" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6153,28 +6201,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="6">
+      <c r="A208" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="6">
+      <c r="B208" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="6">
+      <c r="C208" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="6">
+      <c r="E208" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="6">
+      <c r="F208" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="6">
+      <c r="G208" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="6">
+      <c r="H208" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6199,28 +6247,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="6">
+      <c r="B210" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="6">
+      <c r="C210" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="6">
+      <c r="D210" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="6">
+      <c r="E210" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="6">
+      <c r="F210" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="6">
+      <c r="G210" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="6">
+      <c r="H210" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="6">
+      <c r="I210" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6308,10 +6356,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="6" t="s">
+      <c r="J213" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6355,28 +6403,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="6">
+      <c r="A215" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="6">
+      <c r="B215" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="6">
+      <c r="C215" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="6">
+      <c r="E215" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="6">
+      <c r="F215" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="6">
+      <c r="G215" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="6">
+      <c r="H215" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6401,28 +6449,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="6">
+      <c r="B217" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="6">
+      <c r="C217" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="6">
+      <c r="D217" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="6">
+      <c r="E217" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="6">
+      <c r="F217" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="6">
+      <c r="G217" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="6">
+      <c r="H217" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="6">
+      <c r="I217" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6539,10 +6587,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="6" t="s">
+      <c r="J221" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6272" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8512" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -193,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -209,6 +234,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -231,26 +261,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true">
-      <c r="A1" t="s" s="14">
+    <row r="1" s="19" customFormat="true">
+      <c r="A1" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B1" t="s" s="19">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="14">
+      <c r="D1" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="E1" t="s" s="19">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="14">
+      <c r="F1" t="s" s="19">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="14">
+      <c r="G1" t="s" s="19">
         <v>7</v>
       </c>
     </row>
@@ -278,28 +308,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="14">
+      <c r="C3" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="F3" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -324,28 +354,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="14">
+      <c r="B5" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="14">
+      <c r="E5" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="F5" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="G5" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="I5" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -491,10 +521,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -538,28 +568,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="14">
+      <c r="A12" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="14">
+      <c r="B12" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="14">
+      <c r="C12" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="14">
+      <c r="E12" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="14">
+      <c r="F12" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="14">
+      <c r="G12" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="14">
+      <c r="H12" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -584,28 +614,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="14">
+      <c r="B14" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="14">
+      <c r="C14" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="14">
+      <c r="D14" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="14">
+      <c r="E14" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="14">
+      <c r="F14" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="14">
+      <c r="G14" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="14">
+      <c r="H14" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="14">
+      <c r="I14" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -693,10 +723,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="14" t="s">
+      <c r="J17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -740,28 +770,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="14">
+      <c r="A19" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="14">
+      <c r="B19" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="14">
+      <c r="C19" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="14">
+      <c r="E19" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="14">
+      <c r="F19" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="14">
+      <c r="G19" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="14">
+      <c r="H19" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -786,28 +816,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="14">
+      <c r="B21" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="14">
+      <c r="C21" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="14">
+      <c r="D21" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="14">
+      <c r="E21" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="14">
+      <c r="F21" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="14">
+      <c r="G21" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="14">
+      <c r="H21" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="14">
+      <c r="I21" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -982,10 +1012,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="14" t="s">
+      <c r="J27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -1029,28 +1059,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="14">
+      <c r="A29" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="14">
+      <c r="B29" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="14">
+      <c r="C29" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="14">
+      <c r="E29" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="14">
+      <c r="F29" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="14">
+      <c r="G29" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="14">
+      <c r="H29" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1075,28 +1105,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="14">
+      <c r="B31" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="14">
+      <c r="C31" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="14">
+      <c r="D31" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="14">
+      <c r="E31" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="14">
+      <c r="F31" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="14">
+      <c r="G31" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="14">
+      <c r="H31" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="14">
+      <c r="I31" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1184,10 +1214,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="14" t="s">
+      <c r="J34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1231,28 +1261,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="14">
+      <c r="A36" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="14">
+      <c r="B36" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="14">
+      <c r="C36" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="14">
+      <c r="E36" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="14">
+      <c r="F36" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="14">
+      <c r="G36" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="14">
+      <c r="H36" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1277,28 +1307,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="14">
+      <c r="B38" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="14">
+      <c r="C38" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="14">
+      <c r="D38" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="14">
+      <c r="E38" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="14">
+      <c r="F38" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="14">
+      <c r="G38" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="14">
+      <c r="H38" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="14">
+      <c r="I38" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1415,10 +1445,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="14" t="s">
+      <c r="J42" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1462,28 +1492,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="14">
+      <c r="A44" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="14">
+      <c r="B44" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="14">
+      <c r="C44" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="14">
+      <c r="E44" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="14">
+      <c r="F44" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="14">
+      <c r="G44" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="14">
+      <c r="H44" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1508,28 +1538,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="14">
+      <c r="B46" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="14">
+      <c r="C46" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="14">
+      <c r="D46" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="14">
+      <c r="E46" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="14">
+      <c r="F46" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="14">
+      <c r="G46" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="14">
+      <c r="H46" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="14">
+      <c r="I46" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1820,10 +1850,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="14" t="s">
+      <c r="J56" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1867,28 +1897,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="14">
+      <c r="A58" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="14">
+      <c r="B58" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="14">
+      <c r="C58" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="14">
+      <c r="E58" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="14">
+      <c r="F58" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="14">
+      <c r="G58" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="14">
+      <c r="H58" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1913,28 +1943,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="14">
+      <c r="B60" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="14">
+      <c r="C60" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="14">
+      <c r="D60" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="14">
+      <c r="E60" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="14">
+      <c r="F60" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="14">
+      <c r="G60" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="14">
+      <c r="H60" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="14">
+      <c r="I60" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2022,10 +2052,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="14" t="s">
+      <c r="J63" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2069,28 +2099,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="14">
+      <c r="A65" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="14">
+      <c r="B65" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="14">
+      <c r="C65" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="14">
+      <c r="E65" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="14">
+      <c r="F65" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="14">
+      <c r="G65" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="14">
+      <c r="H65" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2115,28 +2145,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="14">
+      <c r="B67" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="14">
+      <c r="C67" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="14">
+      <c r="D67" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="14">
+      <c r="E67" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="14">
+      <c r="F67" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="14">
+      <c r="G67" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="14">
+      <c r="H67" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="14">
+      <c r="I67" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2224,10 +2254,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="14" t="s">
+      <c r="J70" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2271,28 +2301,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="14">
+      <c r="A72" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="14">
+      <c r="B72" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="14">
+      <c r="C72" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="14">
+      <c r="E72" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="14">
+      <c r="F72" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="14">
+      <c r="G72" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="14">
+      <c r="H72" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2317,28 +2347,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="14">
+      <c r="B74" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="14">
+      <c r="C74" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="14">
+      <c r="D74" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="14">
+      <c r="E74" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="14">
+      <c r="F74" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="14">
+      <c r="G74" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="14">
+      <c r="H74" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="14">
+      <c r="I74" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2600,10 +2630,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="14" t="s">
+      <c r="J83" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2647,28 +2677,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="14">
+      <c r="A85" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="14">
+      <c r="B85" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="14">
+      <c r="C85" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="14">
+      <c r="E85" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="14">
+      <c r="F85" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="14">
+      <c r="G85" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="14">
+      <c r="H85" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2693,28 +2723,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="14">
+      <c r="B87" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="14">
+      <c r="C87" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="14">
+      <c r="D87" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="14">
+      <c r="E87" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="14">
+      <c r="F87" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="14">
+      <c r="G87" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="14">
+      <c r="H87" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="14">
+      <c r="I87" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2802,10 +2832,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="14" t="s">
+      <c r="J90" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2849,28 +2879,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="14">
+      <c r="A92" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="14">
+      <c r="B92" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="14">
+      <c r="C92" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="14">
+      <c r="E92" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="14">
+      <c r="F92" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="14">
+      <c r="G92" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="14">
+      <c r="H92" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2895,28 +2925,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="14">
+      <c r="B94" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="14">
+      <c r="C94" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="14">
+      <c r="D94" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="14">
+      <c r="E94" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="14">
+      <c r="F94" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="14">
+      <c r="G94" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="14">
+      <c r="H94" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="14">
+      <c r="I94" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3091,10 +3121,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="14" t="s">
+      <c r="J100" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3138,28 +3168,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="14">
+      <c r="A102" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="14">
+      <c r="B102" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="14">
+      <c r="C102" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="14">
+      <c r="E102" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="14">
+      <c r="F102" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="14">
+      <c r="G102" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="14">
+      <c r="H102" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3184,28 +3214,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="14">
+      <c r="B104" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="14">
+      <c r="C104" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="14">
+      <c r="D104" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="14">
+      <c r="E104" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="14">
+      <c r="F104" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="14">
+      <c r="G104" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="14">
+      <c r="H104" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="14">
+      <c r="I104" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3293,10 +3323,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="14" t="s">
+      <c r="J107" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3340,28 +3370,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="14">
+      <c r="A109" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="14">
+      <c r="B109" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="14">
+      <c r="C109" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="14">
+      <c r="E109" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="14">
+      <c r="F109" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="14">
+      <c r="G109" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="14">
+      <c r="H109" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3386,28 +3416,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="14">
+      <c r="B111" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="14">
+      <c r="C111" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="14">
+      <c r="D111" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="14">
+      <c r="E111" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="14">
+      <c r="F111" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="14">
+      <c r="G111" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="14">
+      <c r="H111" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="14">
+      <c r="I111" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3553,10 +3583,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="14" t="s">
+      <c r="J116" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3600,28 +3630,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="14">
+      <c r="A118" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="14">
+      <c r="B118" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="14">
+      <c r="C118" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="14">
+      <c r="E118" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="14">
+      <c r="F118" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="14">
+      <c r="G118" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="14">
+      <c r="H118" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3646,28 +3676,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="14">
+      <c r="B120" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="14">
+      <c r="C120" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="14">
+      <c r="D120" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="14">
+      <c r="E120" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="14">
+      <c r="F120" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="14">
+      <c r="G120" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="14">
+      <c r="H120" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="14">
+      <c r="I120" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3958,10 +3988,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="14" t="s">
+      <c r="J130" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -4005,28 +4035,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="14">
+      <c r="A132" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="14">
+      <c r="B132" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="14">
+      <c r="C132" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="14">
+      <c r="E132" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="14">
+      <c r="F132" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="14">
+      <c r="G132" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="14">
+      <c r="H132" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4051,28 +4081,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="14">
+      <c r="B134" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="14">
+      <c r="C134" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="14">
+      <c r="D134" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="14">
+      <c r="E134" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="14">
+      <c r="F134" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="14">
+      <c r="G134" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="14">
+      <c r="H134" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="14">
+      <c r="I134" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4363,10 +4393,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="14" t="s">
+      <c r="J144" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4410,28 +4440,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="14">
+      <c r="A146" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="14">
+      <c r="B146" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="14">
+      <c r="C146" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="14">
+      <c r="E146" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="14">
+      <c r="F146" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="14">
+      <c r="G146" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="14">
+      <c r="H146" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4456,28 +4486,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="14">
+      <c r="B148" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="14">
+      <c r="C148" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="14">
+      <c r="D148" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="14">
+      <c r="E148" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="14">
+      <c r="F148" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="14">
+      <c r="G148" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="14">
+      <c r="H148" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="14">
+      <c r="I148" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4565,10 +4595,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="14" t="s">
+      <c r="J151" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4612,28 +4642,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="14">
+      <c r="A153" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="14">
+      <c r="B153" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="14">
+      <c r="C153" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="14">
+      <c r="E153" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="14">
+      <c r="F153" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="14">
+      <c r="G153" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="14">
+      <c r="H153" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4658,28 +4688,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="14">
+      <c r="B155" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="14">
+      <c r="C155" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="14">
+      <c r="D155" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="14">
+      <c r="E155" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="14">
+      <c r="F155" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="14">
+      <c r="G155" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="14">
+      <c r="H155" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="14">
+      <c r="I155" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4767,10 +4797,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="14" t="s">
+      <c r="J158" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4814,28 +4844,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="14">
+      <c r="A160" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="14">
+      <c r="B160" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="14">
+      <c r="C160" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="14">
+      <c r="E160" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="14">
+      <c r="F160" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="14">
+      <c r="G160" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="14">
+      <c r="H160" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4860,28 +4890,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="14">
+      <c r="B162" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="14">
+      <c r="C162" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="14">
+      <c r="D162" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="14">
+      <c r="E162" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="14">
+      <c r="F162" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="14">
+      <c r="G162" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="14">
+      <c r="H162" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="14">
+      <c r="I162" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5085,10 +5115,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="14" t="s">
+      <c r="J169" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5132,28 +5162,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="14">
+      <c r="A171" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="14">
+      <c r="B171" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="14">
+      <c r="C171" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="14">
+      <c r="E171" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="14">
+      <c r="F171" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="14">
+      <c r="G171" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="14">
+      <c r="H171" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5178,28 +5208,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="14">
+      <c r="B173" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="14">
+      <c r="C173" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="14">
+      <c r="D173" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="14">
+      <c r="E173" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="14">
+      <c r="F173" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="14">
+      <c r="G173" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="14">
+      <c r="H173" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="14">
+      <c r="I173" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5287,10 +5317,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="14" t="s">
+      <c r="J176" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5334,28 +5364,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="14">
+      <c r="A178" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="14">
+      <c r="B178" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="14">
+      <c r="C178" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="14">
+      <c r="E178" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="14">
+      <c r="F178" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="14">
+      <c r="G178" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="14">
+      <c r="H178" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5380,28 +5410,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="14">
+      <c r="B180" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="14">
+      <c r="C180" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="14">
+      <c r="D180" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="14">
+      <c r="E180" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="14">
+      <c r="F180" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="14">
+      <c r="G180" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="14">
+      <c r="H180" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="14">
+      <c r="I180" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5692,10 +5722,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="14" t="s">
+      <c r="J190" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5739,28 +5769,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="14">
+      <c r="A192" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="14">
+      <c r="B192" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="14">
+      <c r="C192" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="14">
+      <c r="E192" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="14">
+      <c r="F192" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="14">
+      <c r="G192" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="14">
+      <c r="H192" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5785,28 +5815,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="14">
+      <c r="B194" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="14">
+      <c r="C194" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="14">
+      <c r="D194" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="14">
+      <c r="E194" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="14">
+      <c r="F194" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="14">
+      <c r="G194" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="14">
+      <c r="H194" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="14">
+      <c r="I194" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5923,10 +5953,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="14" t="s">
+      <c r="J198" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5970,28 +6000,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="14">
+      <c r="A200" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="14">
+      <c r="B200" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="14">
+      <c r="C200" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="14">
+      <c r="E200" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="14">
+      <c r="F200" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="14">
+      <c r="G200" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="14">
+      <c r="H200" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6016,28 +6046,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="14">
+      <c r="B202" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="14">
+      <c r="C202" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="14">
+      <c r="D202" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="14">
+      <c r="E202" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="14">
+      <c r="F202" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="14">
+      <c r="G202" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="14">
+      <c r="H202" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="14">
+      <c r="I202" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6154,10 +6184,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="14" t="s">
+      <c r="J206" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6201,28 +6231,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="14">
+      <c r="A208" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="14">
+      <c r="B208" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="14">
+      <c r="C208" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="14">
+      <c r="E208" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="14">
+      <c r="F208" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="14">
+      <c r="G208" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="14">
+      <c r="H208" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6247,28 +6277,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="14">
+      <c r="B210" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="14">
+      <c r="C210" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="14">
+      <c r="D210" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="14">
+      <c r="E210" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="14">
+      <c r="F210" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="14">
+      <c r="G210" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="14">
+      <c r="H210" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="14">
+      <c r="I210" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6356,10 +6386,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="14" t="s">
+      <c r="J213" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6403,28 +6433,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="14">
+      <c r="A215" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="14">
+      <c r="B215" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="14">
+      <c r="C215" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="14">
+      <c r="E215" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="14">
+      <c r="F215" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="14">
+      <c r="G215" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="14">
+      <c r="H215" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6449,28 +6479,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="14">
+      <c r="B217" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="14">
+      <c r="C217" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="14">
+      <c r="D217" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="14">
+      <c r="E217" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="14">
+      <c r="F217" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="14">
+      <c r="G217" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="14">
+      <c r="H217" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="14">
+      <c r="I217" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6587,10 +6617,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="14" t="s">
+      <c r="J221" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
